--- a/biology/Médecine/Hanche/Hanche.xlsx
+++ b/biology/Médecine/Hanche/Hanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La hanche est la partie du corps située à la jonction entre le membre inférieur au niveau de la cuisse et le tronc au niveau du bassin.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La hanche est centrée sur l'articulation coxale entre l'os coxal et le fémur.
 Ses limites sont :
@@ -549,7 +563,9 @@
           <t>Anatomie populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour l'anatomie populaire (dans le langage courant et non-scientifique), la hanche est généralement un attribut féminin[réf. nécessaire]. Le mot n'est alors plus appliqué à une articulation osseuse mais à la configuration musculaire et surtout adipeuse du haut de la cuisse (localisations graisseuses péri-trochanteriennes).
 Les hanches sont associées à la fertilité et à la sexualité[réf. nécessaire]. La croyance populaire associe les hanches larges à un bassin large, qui faciliterait l'accouchement d'un nouveau-né. Les hanches sont en tout cas associées à la maturité sexuelle, puisqu'elles n'existent que chez la femme adulte, et sont perçues comme un atout sexuel[réf. nécessaire]. Dans de nombreuses peintures ou sculptures classiques, on peut observer des femmes avec des hanches amplifiées (Vénus callipyge, Grande Odalisque).
